--- a/data/trans_camb/IP41-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP41-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,12 +685,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-20,51; 0,0</t>
+          <t>-22,94; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-23,43; 0,0</t>
+          <t>-21,5; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -700,12 +700,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-16,22; 0,0</t>
+          <t>-13,52; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-31,14; -2,52</t>
+          <t>-32,52; -2,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-13,29; -1,27</t>
+          <t>-12,78; -1,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-19,75; -3,26</t>
+          <t>-19,28; -2,64</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -791,12 +791,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-20,51; 0,0</t>
+          <t>-22,94; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-23,43; 0,0</t>
+          <t>-21,5; 0,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -806,12 +806,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-16,22; 0,0</t>
+          <t>-13,52; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-31,14; -2,52</t>
+          <t>-32,52; -2,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -821,12 +821,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-13,29; -1,27</t>
+          <t>-12,78; -1,34</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-19,75; -3,26</t>
+          <t>-19,28; -2,64</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,83; 0,43</t>
+          <t>-12,75; -0,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,36; 3,03</t>
+          <t>-7,16; 3,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-96,71; -89,5</t>
+          <t>-96,72; -89,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,1; 2,42</t>
+          <t>-9,39; 1,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-18,04; -4,04</t>
+          <t>-18,14; -4,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-97,12; -89,93</t>
+          <t>-97,25; -90,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-9,45; -1,02</t>
+          <t>-9,17; -0,66</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-10,33; -1,6</t>
+          <t>-10,56; -1,77</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-96,06; -91,05</t>
+          <t>-96,02; -90,91</t>
         </is>
       </c>
     </row>
@@ -1007,12 +1007,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-12,39; 0,37</t>
+          <t>-13,56; -0,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,69; 3,32</t>
+          <t>-7,63; 4,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1022,12 +1022,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,4; 2,69</t>
+          <t>-9,84; 1,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-19,04; -4,36</t>
+          <t>-18,99; -4,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1037,12 +1037,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-9,88; -0,9</t>
+          <t>-9,58; -0,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-10,88; -1,74</t>
+          <t>-11,13; -1,92</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 1,15</t>
+          <t>-6,53; 1,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-15,06; -4,94</t>
+          <t>-14,62; -5,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-96,61; -91,34</t>
+          <t>-96,63; -91,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,46; 2,05</t>
+          <t>-6,87; 1,73</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,99; -1,28</t>
+          <t>-11,37; -1,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-94,75; -88,6</t>
+          <t>-94,65; -88,66</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 0,62</t>
+          <t>-5,55; 0,39</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-11,54; -4,87</t>
+          <t>-11,82; -4,77</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-95,03; -90,94</t>
+          <t>-94,83; -90,94</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 1,23</t>
+          <t>-6,82; 1,38</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-15,73; -5,33</t>
+          <t>-15,33; -6,26</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1238,12 +1238,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-7,85; 2,28</t>
+          <t>-7,31; 1,92</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-11,97; -1,47</t>
+          <t>-12,25; -1,47</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1253,12 +1253,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-5,94; 0,67</t>
+          <t>-5,9; 0,43</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-12,28; -5,26</t>
+          <t>-12,54; -5,24</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-9,57; 0,86</t>
+          <t>-10,05; 0,32</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-20,01; -7,57</t>
+          <t>-20,59; -7,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-95,5; -88,22</t>
+          <t>-95,69; -88,93</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,57; 2,79</t>
+          <t>-7,03; 2,83</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-13,68; -2,51</t>
+          <t>-12,81; -1,84</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-94,72; -87,63</t>
+          <t>-94,82; -87,58</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-7,37; 0,2</t>
+          <t>-7,22; 0,39</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-14,98; -6,5</t>
+          <t>-15,58; -6,57</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-94,51; -89,52</t>
+          <t>-94,54; -89,55</t>
         </is>
       </c>
     </row>
@@ -1439,12 +1439,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-10,19; 0,92</t>
+          <t>-10,58; 0,34</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-21,76; -8,74</t>
+          <t>-21,73; -8,67</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1454,12 +1454,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 3,11</t>
+          <t>-7,5; 3,15</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-14,55; -2,8</t>
+          <t>-13,63; -2,14</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1469,12 +1469,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-7,85; 0,22</t>
+          <t>-7,62; 0,45</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-16,04; -7,19</t>
+          <t>-16,77; -7,29</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-9,31; 1,26</t>
+          <t>-9,51; 1,41</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-12,67; -1,39</t>
+          <t>-13,35; -1,67</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-91,82; -84,52</t>
+          <t>-91,8; -84,46</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 5,35</t>
+          <t>-5,88; 5,16</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-10,71; 1,87</t>
+          <t>-10,29; 1,4</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-90,76; -82,82</t>
+          <t>-90,44; -82,57</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-5,86; 2,11</t>
+          <t>-5,87; 1,94</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-10,13; -1,74</t>
+          <t>-9,83; -1,61</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-90,26; -84,76</t>
+          <t>-90,29; -84,9</t>
         </is>
       </c>
     </row>
@@ -1655,12 +1655,12 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-10,41; 1,43</t>
+          <t>-10,56; 1,63</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-13,96; -1,56</t>
+          <t>-14,81; -1,93</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1670,12 +1670,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-7,06; 6,46</t>
+          <t>-6,61; 6,23</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-12,24; 2,21</t>
+          <t>-11,55; 1,6</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -1685,12 +1685,12 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 2,46</t>
+          <t>-6,55; 2,31</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-11,29; -2,04</t>
+          <t>-10,93; -1,9</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-6,82; -1,74</t>
+          <t>-6,72; -1,53</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-11,62; -6,0</t>
+          <t>-11,04; -5,77</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-93,9; -90,8</t>
+          <t>-93,99; -90,74</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 0,59</t>
+          <t>-4,54; 0,53</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-9,69; -4,12</t>
+          <t>-9,94; -4,31</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-92,93; -89,08</t>
+          <t>-92,8; -89,26</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-4,94; -1,32</t>
+          <t>-4,88; -1,22</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-9,65; -5,77</t>
+          <t>-9,68; -5,97</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-92,93; -90,57</t>
+          <t>-92,89; -90,46</t>
         </is>
       </c>
     </row>
@@ -1871,12 +1871,12 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-7,24; -1,89</t>
+          <t>-7,19; -1,68</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-12,44; -6,52</t>
+          <t>-11,84; -6,23</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -1886,12 +1886,12 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 0,63</t>
+          <t>-4,93; 0,58</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-10,5; -4,54</t>
+          <t>-10,71; -4,72</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
@@ -1901,12 +1901,12 @@
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-5,32; -1,45</t>
+          <t>-5,28; -1,33</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-10,46; -6,34</t>
+          <t>-10,48; -6,56</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">

--- a/data/trans_camb/IP41-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP41-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-6,45</t>
+          <t>-3,24</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-6,44</t>
+          <t>-10,96</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-100,0</t>
+          <t>-95,2</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,99</t>
+          <t>-6,34</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-11,75</t>
+          <t>-2,51</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-100,0</t>
+          <t>-94,54</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-4,83</t>
+          <t>-4,87</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-8,93</t>
+          <t>-6,52</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-100,0</t>
+          <t>-94,85</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-22,94; 0,0</t>
+          <t>-8,4; 1,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-21,5; 0,0</t>
+          <t>-17,24; -4,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-97,67; -91,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-13,52; 0,0</t>
+          <t>-11,49; -1,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-32,52; -2,7</t>
+          <t>-7,5; 2,25</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-97,0; -90,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-12,78; -1,34</t>
+          <t>-8,22; -0,94</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-19,28; -2,64</t>
+          <t>-10,53; -2,84</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-96,66; -92,44</t>
         </is>
       </c>
     </row>
@@ -738,12 +738,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-6,45%</t>
+          <t>-3,4%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-6,44%</t>
+          <t>-11,51%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,99%</t>
+          <t>-6,7%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-11,75%</t>
+          <t>-2,66%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -768,12 +768,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-4,83%</t>
+          <t>-5,13%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-8,93%</t>
+          <t>-6,87%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -791,12 +791,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-22,94; 0,0</t>
+          <t>-8,73; 1,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-21,5; 0,0</t>
+          <t>-18,09; -5,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -806,12 +806,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-13,52; 0,0</t>
+          <t>-12,05; -1,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-32,52; -2,7</t>
+          <t>-7,82; 2,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -821,12 +821,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-12,78; -1,34</t>
+          <t>-8,6; -1,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-19,28; -2,64</t>
+          <t>-10,93; -3,02</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-6,29</t>
+          <t>-2,56</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,73</t>
+          <t>-6,22</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-93,44</t>
+          <t>-91,94</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,25</t>
+          <t>-2,58</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-10,81</t>
+          <t>-10,05</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-94,24</t>
+          <t>-94,45</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-4,84</t>
+          <t>-2,57</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-6,05</t>
+          <t>-8,21</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-93,82</t>
+          <t>-93,25</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,75; -0,86</t>
+          <t>-6,89; 2,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,16; 3,71</t>
+          <t>-11,31; -1,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-96,72; -89,74</t>
+          <t>-94,75; -88,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,39; 1,59</t>
+          <t>-6,41; 1,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-18,14; -4,5</t>
+          <t>-14,98; -5,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-97,25; -90,27</t>
+          <t>-96,64; -91,46</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-9,17; -0,66</t>
+          <t>-5,57; 0,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-10,56; -1,77</t>
+          <t>-11,65; -5,04</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-96,02; -90,91</t>
+          <t>-94,81; -91,05</t>
         </is>
       </c>
     </row>
@@ -954,12 +954,12 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-6,73%</t>
+          <t>-2,79%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,85%</t>
+          <t>-6,76%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -969,12 +969,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-3,44%</t>
+          <t>-2,73%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-11,47%</t>
+          <t>-10,65%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -984,12 +984,12 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-5,16%</t>
+          <t>-2,76%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-6,45%</t>
+          <t>-8,81%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1007,12 +1007,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-13,56; -0,95</t>
+          <t>-7,36; 2,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 4,09</t>
+          <t>-11,98; -1,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1022,12 +1022,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,84; 1,71</t>
+          <t>-6,72; 1,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-18,99; -4,95</t>
+          <t>-15,62; -6,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1037,12 +1037,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-9,58; -0,73</t>
+          <t>-5,9; 0,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-11,13; -1,92</t>
+          <t>-12,4; -5,47</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,58</t>
+          <t>-2,1</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-10,05</t>
+          <t>-7,85</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-94,45</t>
+          <t>-91,94</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,56</t>
+          <t>-4,68</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-6,22</t>
+          <t>-14,05</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-91,94</t>
+          <t>-92,57</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-2,57</t>
+          <t>-3,44</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-8,21</t>
+          <t>-11,05</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-93,25</t>
+          <t>-92,27</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,53; 1,3</t>
+          <t>-7,16; 3,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-14,62; -5,75</t>
+          <t>-12,97; -2,22</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-96,63; -91,4</t>
+          <t>-94,78; -87,46</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 1,73</t>
+          <t>-10,28; 0,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,37; -1,3</t>
+          <t>-20,76; -8,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-94,65; -88,66</t>
+          <t>-95,47; -88,75</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 0,39</t>
+          <t>-7,01; 0,22</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-11,82; -4,77</t>
+          <t>-15,49; -6,81</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-94,83; -90,94</t>
+          <t>-94,44; -89,5</t>
         </is>
       </c>
     </row>
@@ -1170,12 +1170,12 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-2,73%</t>
+          <t>-2,28%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-10,65%</t>
+          <t>-8,54%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1185,12 +1185,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-2,79%</t>
+          <t>-5,05%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-6,76%</t>
+          <t>-15,18%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1200,12 +1200,12 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-2,76%</t>
+          <t>-3,72%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-8,81%</t>
+          <t>-11,97%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1223,12 +1223,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 1,38</t>
+          <t>-7,78; 3,34</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-15,33; -6,26</t>
+          <t>-13,72; -2,32</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1238,12 +1238,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-7,31; 1,92</t>
+          <t>-10,88; 0,33</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-12,25; -1,47</t>
+          <t>-22,3; -9,04</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1253,12 +1253,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 0,43</t>
+          <t>-7,54; 0,24</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-12,54; -5,24</t>
+          <t>-16,55; -7,47</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-4,68</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-14,05</t>
+          <t>-4,3</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-92,57</t>
+          <t>-87,0</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,1</t>
+          <t>-3,72</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-7,85</t>
+          <t>-7,21</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-91,94</t>
+          <t>-88,52</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-3,44</t>
+          <t>-2,05</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-11,05</t>
+          <t>-5,76</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-92,27</t>
+          <t>-87,76</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,05; 0,32</t>
+          <t>-5,94; 5,22</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-20,59; -7,85</t>
+          <t>-10,24; 1,72</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-95,69; -88,93</t>
+          <t>-90,35; -82,22</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 2,83</t>
+          <t>-9,24; 2,09</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-12,81; -1,84</t>
+          <t>-13,09; -1,75</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-94,82; -87,58</t>
+          <t>-91,76; -84,63</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-7,22; 0,39</t>
+          <t>-6,03; 1,88</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-15,58; -6,57</t>
+          <t>-9,78; -1,31</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-94,54; -89,55</t>
+          <t>-90,28; -85,0</t>
         </is>
       </c>
     </row>
@@ -1386,12 +1386,12 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-5,05%</t>
+          <t>-0,43%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-15,18%</t>
+          <t>-4,95%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -1401,12 +1401,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-2,28%</t>
+          <t>-4,21%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-8,54%</t>
+          <t>-8,15%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1416,12 +1416,12 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-3,72%</t>
+          <t>-2,33%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-11,97%</t>
+          <t>-6,56%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1439,12 +1439,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-10,58; 0,34</t>
+          <t>-6,62; 6,27</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-21,73; -8,67</t>
+          <t>-11,63; 1,87</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1454,12 +1454,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-7,5; 3,15</t>
+          <t>-10,16; 2,42</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-13,63; -2,14</t>
+          <t>-14,36; -2,11</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1469,12 +1469,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-7,62; 0,45</t>
+          <t>-6,73; 2,17</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-16,77; -7,29</t>
+          <t>-11,02; -1,6</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1486,7 +1486,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-3,72</t>
+          <t>-1,92</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-7,21</t>
+          <t>-6,9</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-88,52</t>
+          <t>-91,09</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>-4,1</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-4,3</t>
+          <t>-8,63</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-87,0</t>
+          <t>-92,38</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-2,05</t>
+          <t>-3,04</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-5,76</t>
+          <t>-7,79</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-87,76</t>
+          <t>-91,76</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-9,51; 1,41</t>
+          <t>-4,59; 0,7</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-13,35; -1,67</t>
+          <t>-9,74; -3,9</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-91,8; -84,46</t>
+          <t>-92,76; -89,19</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 5,16</t>
+          <t>-6,73; -1,64</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-10,29; 1,4</t>
+          <t>-11,34; -5,66</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-90,44; -82,57</t>
+          <t>-93,89; -90,54</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 1,94</t>
+          <t>-5,02; -1,49</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-9,83; -1,61</t>
+          <t>-9,82; -5,87</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-90,29; -84,9</t>
+          <t>-92,95; -90,5</t>
         </is>
       </c>
     </row>
@@ -1602,12 +1602,12 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-4,21%</t>
+          <t>-2,11%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-8,15%</t>
+          <t>-7,57%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
@@ -1617,12 +1617,12 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-0,43%</t>
+          <t>-4,44%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-4,95%</t>
+          <t>-9,34%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
@@ -1632,12 +1632,12 @@
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-2,33%</t>
+          <t>-3,32%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-6,56%</t>
+          <t>-8,49%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
@@ -1655,12 +1655,12 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-10,56; 1,63</t>
+          <t>-5,01; 0,77</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-14,81; -1,93</t>
+          <t>-10,58; -4,37</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1670,12 +1670,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-6,61; 6,23</t>
+          <t>-7,27; -1,83</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-11,55; 1,6</t>
+          <t>-12,22; -6,19</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -1685,12 +1685,12 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 2,31</t>
+          <t>-5,4; -1,64</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-10,93; -1,9</t>
+          <t>-10,64; -6,43</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
@@ -1700,230 +1700,14 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-4,1</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-8,63</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-92,38</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>-1,92</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-6,9</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-91,09</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>-3,04</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>-7,79</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>-91,76</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-6,72; -1,53</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-11,04; -5,77</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-93,99; -90,74</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-4,54; 0,53</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-9,94; -4,31</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-92,8; -89,26</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-4,88; -1,22</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-9,68; -5,97</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-92,89; -90,46</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-4,44%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-9,34%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>-2,11%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-7,57%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>-3,32%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>-8,49%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-7,19; -1,68</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-11,84; -6,23</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-4,93; 0,58</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-10,71; -4,72</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-5,28; -1,33</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-10,48; -6,56</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
